--- a/indicators/NO_BFLY_001/metadata.xlsx
+++ b/indicators/NO_BFLY_001/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\ecRxiv_butterflies\indicators\NO_BFLY_001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB3B913-0341-4D58-BF3A-A47C7D867563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406C50C8-C979-4AA4-9C18-23EEAD5266EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="38700" windowHeight="15435" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="208">
   <si>
     <t>indicatorID</t>
   </si>
@@ -687,9 +687,6 @@
     <t>NO_BFLY_001</t>
   </si>
   <si>
-    <t>Butterflies</t>
-  </si>
-  <si>
     <t>000.002</t>
   </si>
   <si>
@@ -700,13 +697,22 @@
   </si>
   <si>
     <t>https://github.com/NINAnor/ecRxiv/tree/main/indicators/NO_BFLY_001</t>
+  </si>
+  <si>
+    <t>Butterflies in semi-natural grasslands</t>
+  </si>
+  <si>
+    <t>Reference levels</t>
+  </si>
+  <si>
+    <t>X0 and X100 defined through reference communitis made through expect elicitation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,6 +757,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -821,7 +833,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -832,6 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1150,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78FF33B-C37D-487F-A5F6-37AB2202A4CF}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,12 +1203,12 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>201</v>
+      <c r="B3" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1320,7 +1333,7 @@
         <v>169</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>181</v>
@@ -1334,7 +1347,7 @@
         <v>170</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>171</v>
@@ -1346,7 +1359,7 @@
         <v>188</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>185</v>
@@ -1360,7 +1373,7 @@
         <v>186</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>190</v>
@@ -1393,6 +1406,14 @@
       </c>
       <c r="D18" s="2" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/indicators/NO_BFLY_001/metadata.xlsx
+++ b/indicators/NO_BFLY_001/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\ecRxiv_butterflies\indicators\NO_BFLY_001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406C50C8-C979-4AA4-9C18-23EEAD5266EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CB3180-3057-48A7-B934-7938C81325B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="38700" windowHeight="15435" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="208">
   <si>
     <t>indicatorID</t>
   </si>
@@ -1163,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78FF33B-C37D-487F-A5F6-37AB2202A4CF}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,149 +1278,169 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>183</v>
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2025</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>201</v>
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2025</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>189</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>195</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>207</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{43A0799D-237F-4ECC-8A5C-DEF79B78D1E3}"/>
-    <hyperlink ref="B16" r:id="rId2" xr:uid="{C87FDEE0-0D78-471A-9814-193FEC479157}"/>
-    <hyperlink ref="C16" r:id="rId3" xr:uid="{EFAB55D7-8B3D-4466-BCE4-918E14B74D06}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{C87FDEE0-0D78-471A-9814-193FEC479157}"/>
+    <hyperlink ref="C18" r:id="rId3" xr:uid="{EFAB55D7-8B3D-4466-BCE4-918E14B74D06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -1437,7 +1457,7 @@
           <x14:formula1>
             <xm:f>lookup!$D$2:$D$111</xm:f>
           </x14:formula1>
-          <xm:sqref>B9</xm:sqref>
+          <xm:sqref>B10:B11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF4D43D9-A982-4ECC-8F32-9627C08D5144}">
           <x14:formula1>
@@ -1449,19 +1469,19 @@
           <x14:formula1>
             <xm:f>lookup!$C$2:$C$26</xm:f>
           </x14:formula1>
-          <xm:sqref>B8</xm:sqref>
+          <xm:sqref>B8:B9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EF831FDA-2983-4D36-8B1C-B6481554BCE4}">
           <x14:formula1>
             <xm:f>lookup!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B12</xm:sqref>
+          <xm:sqref>B14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1D87D40F-3673-40D4-8416-B051FD917097}">
           <x14:formula1>
             <xm:f>lookup!$F$2:$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B17</xm:sqref>
+          <xm:sqref>B19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/indicators/NO_BFLY_001/metadata.xlsx
+++ b/indicators/NO_BFLY_001/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\ecRxiv_butterflies\indicators\NO_BFLY_001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CB3180-3057-48A7-B934-7938C81325B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C6E5D9-B574-4374-BBD8-897FEF14E929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="210">
   <si>
     <t>indicatorID</t>
   </si>
@@ -699,13 +699,19 @@
     <t>https://github.com/NINAnor/ecRxiv/tree/main/indicators/NO_BFLY_001</t>
   </si>
   <si>
-    <t>Butterflies in semi-natural grasslands</t>
-  </si>
-  <si>
     <t>Reference levels</t>
   </si>
   <si>
     <t>X0 and X100 defined through reference communitis made through expect elicitation</t>
+  </si>
+  <si>
+    <t>NO_BFLY_002</t>
+  </si>
+  <si>
+    <t>Butterflies</t>
+  </si>
+  <si>
+    <t>Scale - Aggregate</t>
   </si>
 </sst>
 </file>
@@ -1163,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78FF33B-C37D-487F-A5F6-37AB2202A4CF}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,76 +1209,72 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
@@ -1283,164 +1285,180 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2">
         <v>2025</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>183</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2025</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>189</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>187</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{43A0799D-237F-4ECC-8A5C-DEF79B78D1E3}"/>
-    <hyperlink ref="B18" r:id="rId2" xr:uid="{C87FDEE0-0D78-471A-9814-193FEC479157}"/>
-    <hyperlink ref="C18" r:id="rId3" xr:uid="{EFAB55D7-8B3D-4466-BCE4-918E14B74D06}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{43A0799D-237F-4ECC-8A5C-DEF79B78D1E3}"/>
+    <hyperlink ref="B19" r:id="rId2" xr:uid="{C87FDEE0-0D78-471A-9814-193FEC479157}"/>
+    <hyperlink ref="C19" r:id="rId3" xr:uid="{EFAB55D7-8B3D-4466-BCE4-918E14B74D06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -1451,37 +1469,37 @@
           <x14:formula1>
             <xm:f>lookup!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
+          <xm:sqref>B7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CE43F592-5FB8-438F-A25E-95662C73B5D1}">
           <x14:formula1>
             <xm:f>lookup!$D$2:$D$111</xm:f>
           </x14:formula1>
-          <xm:sqref>B10:B11</xm:sqref>
+          <xm:sqref>B11:B12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF4D43D9-A982-4ECC-8F32-9627C08D5144}">
           <x14:formula1>
             <xm:f>lookup!$B$2:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B7</xm:sqref>
+          <xm:sqref>B8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5BDA4539-C128-4D7B-B5D2-1E23C7E74359}">
           <x14:formula1>
             <xm:f>lookup!$C$2:$C$26</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:B9</xm:sqref>
+          <xm:sqref>B9:B10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EF831FDA-2983-4D36-8B1C-B6481554BCE4}">
           <x14:formula1>
             <xm:f>lookup!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B14</xm:sqref>
+          <xm:sqref>B15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1D87D40F-3673-40D4-8416-B051FD917097}">
           <x14:formula1>
             <xm:f>lookup!$F$2:$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B19</xm:sqref>
+          <xm:sqref>B20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
